--- a/COSTOS_INDIRECTOS_DE_ESTUDIO_PROF_2025_COMPLETO_Actualizado.xlsx
+++ b/COSTOS_INDIRECTOS_DE_ESTUDIO_PROF_2025_COMPLETO_Actualizado.xlsx
@@ -647,7 +647,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,11 +748,11 @@
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3">
-        <v>4295000</v>
+        <v>360000</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>357916.66666666669</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="D38" s="5">
         <f>SUM(D2:D37)</f>
-        <v>34135658.666666664</v>
+        <v>30200658.666666668</v>
       </c>
       <c r="E38" s="6"/>
     </row>
@@ -1212,7 +1212,7 @@
       <c r="D39" s="6"/>
       <c r="E39" s="5">
         <f>SUM(E2:E37)</f>
-        <v>2844638.2222222225</v>
+        <v>2516721.555555556</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -1222,7 +1222,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6">
         <f>E39/30</f>
-        <v>94821.274074074085</v>
+        <v>83890.718518518537</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="E41" s="7">
         <f>D41*E40</f>
-        <v>4053609.4666666673</v>
+        <v>3586328.2166666673</v>
       </c>
     </row>
   </sheetData>

--- a/COSTOS_INDIRECTOS_DE_ESTUDIO_PROF_2025_COMPLETO_Actualizado.xlsx
+++ b/COSTOS_INDIRECTOS_DE_ESTUDIO_PROF_2025_COMPLETO_Actualizado.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DE0135-3C71-4351-8741-349F9E3F6708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COSTOS INDIRECTOS 2025" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -170,7 +176,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -643,23 +649,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.28515625" customWidth="1"/>
+    <col min="1" max="1" width="64.33203125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
@@ -685,7 +691,7 @@
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -699,7 +705,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -713,7 +719,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -727,7 +733,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -741,7 +747,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -755,7 +761,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -764,7 +770,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -783,7 +789,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -802,7 +808,7 @@
         <v>5333.333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -821,7 +827,7 @@
         <v>3333.3333333333335</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -840,7 +846,7 @@
         <v>666.66666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -859,7 +865,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
@@ -868,7 +874,7 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -887,7 +893,7 @@
         <v>186111.11111111112</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -906,7 +912,7 @@
         <v>1111.1111111111111</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -925,7 +931,7 @@
         <v>2666.6666666666665</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -944,7 +950,7 @@
         <v>16666.666666666668</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -963,7 +969,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -977,7 +983,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -991,7 +997,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -1005,7 +1011,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1033,7 +1039,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>14</v>
       </c>
@@ -1042,7 +1048,7 @@
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -1056,7 +1062,7 @@
         <v>52500</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -1070,7 +1076,7 @@
         <v>29166.666666666668</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>20</v>
       </c>
@@ -1079,7 +1085,7 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
@@ -1093,12 +1099,12 @@
         <v>112916.66666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="2">
-        <v>300</v>
+      <c r="B30" s="9">
+        <v>2700</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="9">
@@ -1112,7 +1118,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>23</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>26</v>
       </c>
@@ -1135,7 +1141,7 @@
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>27</v>
       </c>
@@ -1149,21 +1155,21 @@
         <v>333333.33333333331</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9">
-        <v>2529792</v>
+        <v>1370000</v>
       </c>
       <c r="E34" s="9">
         <f>D34/12</f>
-        <v>210816</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>114166.66666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>37</v>
       </c>
@@ -1172,7 +1178,7 @@
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
     </row>
-    <row r="36" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>39</v>
       </c>
@@ -1186,7 +1192,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>16</v>
       </c>
@@ -1195,37 +1201,37 @@
       <c r="D37" s="13"/>
       <c r="E37" s="14"/>
     </row>
-    <row r="38" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C38" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="5">
         <f>SUM(D2:D37)</f>
-        <v>30200658.666666668</v>
+        <v>29040866.666666668</v>
       </c>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C39" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="5">
         <f>SUM(E2:E37)</f>
-        <v>2516721.555555556</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>2420072.2222222225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C40" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6">
         <f>E39/30</f>
-        <v>83890.718518518537</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>80669.074074074088</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C41" s="8" t="s">
         <v>24</v>
       </c>
@@ -1234,7 +1240,7 @@
       </c>
       <c r="E41" s="7">
         <f>D41*E40</f>
-        <v>3586328.2166666673</v>
+        <v>3448602.9166666674</v>
       </c>
     </row>
   </sheetData>
